--- a/intervention/business_studies_auto.xlsx
+++ b/intervention/business_studies_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,31 +472,31 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D931252714054</t>
+          <t>Q931101109046</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C931101008023</t>
+          <t>L931412020028</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>E931252916073</t>
+          <t>R931412017031</t>
         </is>
       </c>
     </row>
@@ -512,81 +512,171 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R931412017031</t>
+          <t>M931321009023</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L931412020028</t>
+          <t>D931252714054</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Q931101109046</t>
+          <t>C931101008023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M931321009023</t>
+          <t>E931252916073</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M931100509004</t>
+          <t>Y931325210014</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>T887690719015</t>
+          <t>C373236909082</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T931252911047</t>
+          <t>V931414517045</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Y931325210014</t>
+          <t>C931316110004</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>U931258914007</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>T887690719015</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>T931252911047</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>M931100509004</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>W931321009038</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Q931252907052</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>T931252108049</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>K931383410019</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>J931101109013</t>
         </is>
       </c>
     </row>
